--- a/docs/listado_articulos.xlsx
+++ b/docs/listado_articulos.xlsx
@@ -1,23 +1,35 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28129"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\aal\docs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cristian.paez\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B554E11-0885-48EA-91CA-EC6A5FB7B401}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20400" windowHeight="7620"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="revista" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -419,7 +431,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -733,11 +745,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F127"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F22" sqref="F22"/>
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -784,8 +796,8 @@
         <v>1</v>
       </c>
       <c r="E2" t="str">
-        <f>CONCATENATE("http://asiaameircalatina.org.ar/docs/",C2,"/",C2,".",D2,".pdf")</f>
-        <v>http://asiaameircalatina.org.ar/docs/15/15.1.pdf</v>
+        <f>CONCATENATE("http://www.asiaamericalatina.org/docs/",C2,"/",C2,".",D2,".pdf")</f>
+        <v>http://www.asiaamericalatina.org/docs/15/15.1.pdf</v>
       </c>
       <c r="F2" t="s">
         <v>122</v>
@@ -805,8 +817,8 @@
         <v>2</v>
       </c>
       <c r="E3" t="str">
-        <f t="shared" ref="E3:E66" si="0">CONCATENATE("http://asiaameircalatina.org.ar/docs/",C3,"/",C3,".",D3,".pdf")</f>
-        <v>http://asiaameircalatina.org.ar/docs/15/15.2.pdf</v>
+        <f t="shared" ref="E3:E66" si="0">CONCATENATE("http://www.asiaamericalatina.org/docs/",C3,"/",C3,".",D3,".pdf")</f>
+        <v>http://www.asiaamericalatina.org/docs/15/15.2.pdf</v>
       </c>
       <c r="F3" t="s">
         <v>123</v>
@@ -827,7 +839,7 @@
       </c>
       <c r="E4" t="str">
         <f t="shared" si="0"/>
-        <v>http://asiaameircalatina.org.ar/docs/15/15.3.pdf</v>
+        <v>http://www.asiaamericalatina.org/docs/15/15.3.pdf</v>
       </c>
       <c r="F4" t="s">
         <v>124</v>
@@ -848,7 +860,7 @@
       </c>
       <c r="E5" t="str">
         <f t="shared" si="0"/>
-        <v>http://asiaameircalatina.org.ar/docs/15/15.4.pdf</v>
+        <v>http://www.asiaamericalatina.org/docs/15/15.4.pdf</v>
       </c>
       <c r="F5" t="s">
         <v>125</v>
@@ -869,7 +881,7 @@
       </c>
       <c r="E6" t="str">
         <f t="shared" si="0"/>
-        <v>http://asiaameircalatina.org.ar/docs/15/15.5.pdf</v>
+        <v>http://www.asiaamericalatina.org/docs/15/15.5.pdf</v>
       </c>
       <c r="F6" t="s">
         <v>126</v>
@@ -890,7 +902,7 @@
       </c>
       <c r="E7" t="str">
         <f t="shared" si="0"/>
-        <v>http://asiaameircalatina.org.ar/docs/15/15.6.pdf</v>
+        <v>http://www.asiaamericalatina.org/docs/15/15.6.pdf</v>
       </c>
       <c r="F7" t="s">
         <v>127</v>
@@ -911,7 +923,7 @@
       </c>
       <c r="E8" t="str">
         <f t="shared" si="0"/>
-        <v>http://asiaameircalatina.org.ar/docs/15/15.7.pdf</v>
+        <v>http://www.asiaamericalatina.org/docs/15/15.7.pdf</v>
       </c>
       <c r="F8" t="s">
         <v>128</v>
@@ -932,7 +944,7 @@
       </c>
       <c r="E9" t="str">
         <f t="shared" si="0"/>
-        <v>http://asiaameircalatina.org.ar/docs/15/15.8.pdf</v>
+        <v>http://www.asiaamericalatina.org/docs/15/15.8.pdf</v>
       </c>
       <c r="F9" t="s">
         <v>129</v>
@@ -953,7 +965,7 @@
       </c>
       <c r="E10" t="str">
         <f t="shared" si="0"/>
-        <v>http://asiaameircalatina.org.ar/docs/14/14.1.pdf</v>
+        <v>http://www.asiaamericalatina.org/docs/14/14.1.pdf</v>
       </c>
       <c r="F10" t="s">
         <v>6</v>
@@ -974,7 +986,7 @@
       </c>
       <c r="E11" t="str">
         <f t="shared" si="0"/>
-        <v>http://asiaameircalatina.org.ar/docs/14/14.2.pdf</v>
+        <v>http://www.asiaamericalatina.org/docs/14/14.2.pdf</v>
       </c>
       <c r="F11" t="s">
         <v>7</v>
@@ -995,7 +1007,7 @@
       </c>
       <c r="E12" t="str">
         <f t="shared" si="0"/>
-        <v>http://asiaameircalatina.org.ar/docs/14/14.3.pdf</v>
+        <v>http://www.asiaamericalatina.org/docs/14/14.3.pdf</v>
       </c>
       <c r="F12" t="s">
         <v>8</v>
@@ -1016,7 +1028,7 @@
       </c>
       <c r="E13" t="str">
         <f t="shared" si="0"/>
-        <v>http://asiaameircalatina.org.ar/docs/14/14.4.pdf</v>
+        <v>http://www.asiaamericalatina.org/docs/14/14.4.pdf</v>
       </c>
       <c r="F13" t="s">
         <v>9</v>
@@ -1037,7 +1049,7 @@
       </c>
       <c r="E14" t="str">
         <f t="shared" si="0"/>
-        <v>http://asiaameircalatina.org.ar/docs/14/14.5.pdf</v>
+        <v>http://www.asiaamericalatina.org/docs/14/14.5.pdf</v>
       </c>
       <c r="F14" t="s">
         <v>10</v>
@@ -1058,7 +1070,7 @@
       </c>
       <c r="E15" t="str">
         <f t="shared" si="0"/>
-        <v>http://asiaameircalatina.org.ar/docs/14/14.6.pdf</v>
+        <v>http://www.asiaamericalatina.org/docs/14/14.6.pdf</v>
       </c>
       <c r="F15" t="s">
         <v>11</v>
@@ -1079,7 +1091,7 @@
       </c>
       <c r="E16" t="str">
         <f t="shared" si="0"/>
-        <v>http://asiaameircalatina.org.ar/docs/14/14.7.pdf</v>
+        <v>http://www.asiaamericalatina.org/docs/14/14.7.pdf</v>
       </c>
       <c r="F16" t="s">
         <v>12</v>
@@ -1100,7 +1112,7 @@
       </c>
       <c r="E17" t="str">
         <f t="shared" si="0"/>
-        <v>http://asiaameircalatina.org.ar/docs/14/14.8.pdf</v>
+        <v>http://www.asiaamericalatina.org/docs/14/14.8.pdf</v>
       </c>
       <c r="F17" t="s">
         <v>13</v>
@@ -1121,7 +1133,7 @@
       </c>
       <c r="E18" t="str">
         <f t="shared" si="0"/>
-        <v>http://asiaameircalatina.org.ar/docs/13/13.1.pdf</v>
+        <v>http://www.asiaamericalatina.org/docs/13/13.1.pdf</v>
       </c>
       <c r="F18" t="s">
         <v>14</v>
@@ -1142,7 +1154,7 @@
       </c>
       <c r="E19" t="str">
         <f t="shared" si="0"/>
-        <v>http://asiaameircalatina.org.ar/docs/13/13.2.pdf</v>
+        <v>http://www.asiaamericalatina.org/docs/13/13.2.pdf</v>
       </c>
       <c r="F19" t="s">
         <v>15</v>
@@ -1163,7 +1175,7 @@
       </c>
       <c r="E20" t="str">
         <f t="shared" si="0"/>
-        <v>http://asiaameircalatina.org.ar/docs/13/13.3.pdf</v>
+        <v>http://www.asiaamericalatina.org/docs/13/13.3.pdf</v>
       </c>
       <c r="F20" t="s">
         <v>16</v>
@@ -1184,7 +1196,7 @@
       </c>
       <c r="E21" t="str">
         <f t="shared" si="0"/>
-        <v>http://asiaameircalatina.org.ar/docs/13/13.4.pdf</v>
+        <v>http://www.asiaamericalatina.org/docs/13/13.4.pdf</v>
       </c>
       <c r="F21" t="s">
         <v>17</v>
@@ -1205,7 +1217,7 @@
       </c>
       <c r="E22" t="str">
         <f t="shared" si="0"/>
-        <v>http://asiaameircalatina.org.ar/docs/13/13.5.pdf</v>
+        <v>http://www.asiaamericalatina.org/docs/13/13.5.pdf</v>
       </c>
       <c r="F22" t="s">
         <v>18</v>
@@ -1226,7 +1238,7 @@
       </c>
       <c r="E23" t="str">
         <f t="shared" si="0"/>
-        <v>http://asiaameircalatina.org.ar/docs/13/13.6.pdf</v>
+        <v>http://www.asiaamericalatina.org/docs/13/13.6.pdf</v>
       </c>
       <c r="F23" t="s">
         <v>19</v>
@@ -1247,7 +1259,7 @@
       </c>
       <c r="E24" t="str">
         <f t="shared" si="0"/>
-        <v>http://asiaameircalatina.org.ar/docs/13/13.7.pdf</v>
+        <v>http://www.asiaamericalatina.org/docs/13/13.7.pdf</v>
       </c>
       <c r="F24" t="s">
         <v>20</v>
@@ -1268,7 +1280,7 @@
       </c>
       <c r="E25" t="str">
         <f t="shared" si="0"/>
-        <v>http://asiaameircalatina.org.ar/docs/13/13.8.pdf</v>
+        <v>http://www.asiaamericalatina.org/docs/13/13.8.pdf</v>
       </c>
       <c r="F25" t="s">
         <v>21</v>
@@ -1289,7 +1301,7 @@
       </c>
       <c r="E26" t="str">
         <f t="shared" si="0"/>
-        <v>http://asiaameircalatina.org.ar/docs/13/13.9.pdf</v>
+        <v>http://www.asiaamericalatina.org/docs/13/13.9.pdf</v>
       </c>
       <c r="F26" t="s">
         <v>22</v>
@@ -1310,7 +1322,7 @@
       </c>
       <c r="E27" t="str">
         <f t="shared" si="0"/>
-        <v>http://asiaameircalatina.org.ar/docs/13/13.10.pdf</v>
+        <v>http://www.asiaamericalatina.org/docs/13/13.10.pdf</v>
       </c>
       <c r="F27" t="s">
         <v>23</v>
@@ -1331,7 +1343,7 @@
       </c>
       <c r="E28" t="str">
         <f t="shared" si="0"/>
-        <v>http://asiaameircalatina.org.ar/docs/12/12.1.pdf</v>
+        <v>http://www.asiaamericalatina.org/docs/12/12.1.pdf</v>
       </c>
       <c r="F28" t="s">
         <v>24</v>
@@ -1352,7 +1364,7 @@
       </c>
       <c r="E29" t="str">
         <f t="shared" si="0"/>
-        <v>http://asiaameircalatina.org.ar/docs/12/12.2.pdf</v>
+        <v>http://www.asiaamericalatina.org/docs/12/12.2.pdf</v>
       </c>
       <c r="F29" t="s">
         <v>25</v>
@@ -1373,7 +1385,7 @@
       </c>
       <c r="E30" t="str">
         <f t="shared" si="0"/>
-        <v>http://asiaameircalatina.org.ar/docs/12/12.3.pdf</v>
+        <v>http://www.asiaamericalatina.org/docs/12/12.3.pdf</v>
       </c>
       <c r="F30" t="s">
         <v>26</v>
@@ -1394,7 +1406,7 @@
       </c>
       <c r="E31" t="str">
         <f t="shared" si="0"/>
-        <v>http://asiaameircalatina.org.ar/docs/12/12.4.pdf</v>
+        <v>http://www.asiaamericalatina.org/docs/12/12.4.pdf</v>
       </c>
       <c r="F31" t="s">
         <v>27</v>
@@ -1415,7 +1427,7 @@
       </c>
       <c r="E32" t="str">
         <f t="shared" si="0"/>
-        <v>http://asiaameircalatina.org.ar/docs/12/12.5.pdf</v>
+        <v>http://www.asiaamericalatina.org/docs/12/12.5.pdf</v>
       </c>
       <c r="F32" t="s">
         <v>28</v>
@@ -1436,7 +1448,7 @@
       </c>
       <c r="E33" t="str">
         <f t="shared" si="0"/>
-        <v>http://asiaameircalatina.org.ar/docs/12/12.6.pdf</v>
+        <v>http://www.asiaamericalatina.org/docs/12/12.6.pdf</v>
       </c>
       <c r="F33" t="s">
         <v>29</v>
@@ -1457,7 +1469,7 @@
       </c>
       <c r="E34" t="str">
         <f t="shared" si="0"/>
-        <v>http://asiaameircalatina.org.ar/docs/12/12.7.pdf</v>
+        <v>http://www.asiaamericalatina.org/docs/12/12.7.pdf</v>
       </c>
       <c r="F34" t="s">
         <v>30</v>
@@ -1478,7 +1490,7 @@
       </c>
       <c r="E35" t="str">
         <f t="shared" si="0"/>
-        <v>http://asiaameircalatina.org.ar/docs/12/12.8.pdf</v>
+        <v>http://www.asiaamericalatina.org/docs/12/12.8.pdf</v>
       </c>
       <c r="F35" t="s">
         <v>31</v>
@@ -1499,7 +1511,7 @@
       </c>
       <c r="E36" t="str">
         <f t="shared" si="0"/>
-        <v>http://asiaameircalatina.org.ar/docs/11/11.1.pdf</v>
+        <v>http://www.asiaamericalatina.org/docs/11/11.1.pdf</v>
       </c>
       <c r="F36" t="s">
         <v>32</v>
@@ -1520,7 +1532,7 @@
       </c>
       <c r="E37" t="str">
         <f t="shared" si="0"/>
-        <v>http://asiaameircalatina.org.ar/docs/11/11.2.pdf</v>
+        <v>http://www.asiaamericalatina.org/docs/11/11.2.pdf</v>
       </c>
       <c r="F37" t="s">
         <v>33</v>
@@ -1541,7 +1553,7 @@
       </c>
       <c r="E38" t="str">
         <f t="shared" si="0"/>
-        <v>http://asiaameircalatina.org.ar/docs/11/11.3.pdf</v>
+        <v>http://www.asiaamericalatina.org/docs/11/11.3.pdf</v>
       </c>
       <c r="F38" t="s">
         <v>34</v>
@@ -1562,7 +1574,7 @@
       </c>
       <c r="E39" t="str">
         <f t="shared" si="0"/>
-        <v>http://asiaameircalatina.org.ar/docs/11/11.4.pdf</v>
+        <v>http://www.asiaamericalatina.org/docs/11/11.4.pdf</v>
       </c>
       <c r="F39" t="s">
         <v>35</v>
@@ -1583,7 +1595,7 @@
       </c>
       <c r="E40" t="str">
         <f t="shared" si="0"/>
-        <v>http://asiaameircalatina.org.ar/docs/11/11.5.pdf</v>
+        <v>http://www.asiaamericalatina.org/docs/11/11.5.pdf</v>
       </c>
       <c r="F40" t="s">
         <v>36</v>
@@ -1604,7 +1616,7 @@
       </c>
       <c r="E41" t="str">
         <f t="shared" si="0"/>
-        <v>http://asiaameircalatina.org.ar/docs/11/11.6.pdf</v>
+        <v>http://www.asiaamericalatina.org/docs/11/11.6.pdf</v>
       </c>
       <c r="F41" t="s">
         <v>37</v>
@@ -1625,7 +1637,7 @@
       </c>
       <c r="E42" t="str">
         <f t="shared" si="0"/>
-        <v>http://asiaameircalatina.org.ar/docs/11/11.7.pdf</v>
+        <v>http://www.asiaamericalatina.org/docs/11/11.7.pdf</v>
       </c>
       <c r="F42" t="s">
         <v>38</v>
@@ -1646,7 +1658,7 @@
       </c>
       <c r="E43" t="str">
         <f t="shared" si="0"/>
-        <v>http://asiaameircalatina.org.ar/docs/11/11.8.pdf</v>
+        <v>http://www.asiaamericalatina.org/docs/11/11.8.pdf</v>
       </c>
       <c r="F43" t="s">
         <v>39</v>
@@ -1667,7 +1679,7 @@
       </c>
       <c r="E44" t="str">
         <f t="shared" si="0"/>
-        <v>http://asiaameircalatina.org.ar/docs/11/11.9.pdf</v>
+        <v>http://www.asiaamericalatina.org/docs/11/11.9.pdf</v>
       </c>
       <c r="F44" t="s">
         <v>40</v>
@@ -1688,7 +1700,7 @@
       </c>
       <c r="E45" t="str">
         <f t="shared" si="0"/>
-        <v>http://asiaameircalatina.org.ar/docs/10/10.1.pdf</v>
+        <v>http://www.asiaamericalatina.org/docs/10/10.1.pdf</v>
       </c>
       <c r="F45" t="s">
         <v>41</v>
@@ -1709,7 +1721,7 @@
       </c>
       <c r="E46" t="str">
         <f t="shared" si="0"/>
-        <v>http://asiaameircalatina.org.ar/docs/10/10.2.pdf</v>
+        <v>http://www.asiaamericalatina.org/docs/10/10.2.pdf</v>
       </c>
       <c r="F46" t="s">
         <v>42</v>
@@ -1730,7 +1742,7 @@
       </c>
       <c r="E47" t="str">
         <f t="shared" si="0"/>
-        <v>http://asiaameircalatina.org.ar/docs/10/10.3.pdf</v>
+        <v>http://www.asiaamericalatina.org/docs/10/10.3.pdf</v>
       </c>
       <c r="F47" t="s">
         <v>43</v>
@@ -1751,7 +1763,7 @@
       </c>
       <c r="E48" t="str">
         <f t="shared" si="0"/>
-        <v>http://asiaameircalatina.org.ar/docs/10/10.4.pdf</v>
+        <v>http://www.asiaamericalatina.org/docs/10/10.4.pdf</v>
       </c>
       <c r="F48" t="s">
         <v>44</v>
@@ -1772,7 +1784,7 @@
       </c>
       <c r="E49" t="str">
         <f t="shared" si="0"/>
-        <v>http://asiaameircalatina.org.ar/docs/10/10.5.pdf</v>
+        <v>http://www.asiaamericalatina.org/docs/10/10.5.pdf</v>
       </c>
       <c r="F49" t="s">
         <v>45</v>
@@ -1793,7 +1805,7 @@
       </c>
       <c r="E50" t="str">
         <f t="shared" si="0"/>
-        <v>http://asiaameircalatina.org.ar/docs/10/10.6.pdf</v>
+        <v>http://www.asiaamericalatina.org/docs/10/10.6.pdf</v>
       </c>
       <c r="F50" t="s">
         <v>46</v>
@@ -1814,7 +1826,7 @@
       </c>
       <c r="E51" t="str">
         <f t="shared" si="0"/>
-        <v>http://asiaameircalatina.org.ar/docs/10/10.7.pdf</v>
+        <v>http://www.asiaamericalatina.org/docs/10/10.7.pdf</v>
       </c>
       <c r="F51" t="s">
         <v>47</v>
@@ -1835,7 +1847,7 @@
       </c>
       <c r="E52" t="str">
         <f t="shared" si="0"/>
-        <v>http://asiaameircalatina.org.ar/docs/10/10.8.pdf</v>
+        <v>http://www.asiaamericalatina.org/docs/10/10.8.pdf</v>
       </c>
       <c r="F52" t="s">
         <v>48</v>
@@ -1856,7 +1868,7 @@
       </c>
       <c r="E53" t="str">
         <f t="shared" si="0"/>
-        <v>http://asiaameircalatina.org.ar/docs/10/10.9.pdf</v>
+        <v>http://www.asiaamericalatina.org/docs/10/10.9.pdf</v>
       </c>
       <c r="F53" t="s">
         <v>49</v>
@@ -1877,7 +1889,7 @@
       </c>
       <c r="E54" t="str">
         <f t="shared" si="0"/>
-        <v>http://asiaameircalatina.org.ar/docs/10/10.10.pdf</v>
+        <v>http://www.asiaamericalatina.org/docs/10/10.10.pdf</v>
       </c>
       <c r="F54" t="s">
         <v>50</v>
@@ -1898,7 +1910,7 @@
       </c>
       <c r="E55" t="str">
         <f t="shared" si="0"/>
-        <v>http://asiaameircalatina.org.ar/docs/9/9.1.pdf</v>
+        <v>http://www.asiaamericalatina.org/docs/9/9.1.pdf</v>
       </c>
       <c r="F55" t="s">
         <v>51</v>
@@ -1919,7 +1931,7 @@
       </c>
       <c r="E56" t="str">
         <f t="shared" si="0"/>
-        <v>http://asiaameircalatina.org.ar/docs/9/9.2.pdf</v>
+        <v>http://www.asiaamericalatina.org/docs/9/9.2.pdf</v>
       </c>
       <c r="F56" t="s">
         <v>52</v>
@@ -1940,7 +1952,7 @@
       </c>
       <c r="E57" t="str">
         <f t="shared" si="0"/>
-        <v>http://asiaameircalatina.org.ar/docs/9/9.3.pdf</v>
+        <v>http://www.asiaamericalatina.org/docs/9/9.3.pdf</v>
       </c>
       <c r="F57" t="s">
         <v>53</v>
@@ -1961,7 +1973,7 @@
       </c>
       <c r="E58" t="str">
         <f t="shared" si="0"/>
-        <v>http://asiaameircalatina.org.ar/docs/9/9.4.pdf</v>
+        <v>http://www.asiaamericalatina.org/docs/9/9.4.pdf</v>
       </c>
       <c r="F58" t="s">
         <v>54</v>
@@ -1982,7 +1994,7 @@
       </c>
       <c r="E59" t="str">
         <f t="shared" si="0"/>
-        <v>http://asiaameircalatina.org.ar/docs/9/9.5.pdf</v>
+        <v>http://www.asiaamericalatina.org/docs/9/9.5.pdf</v>
       </c>
       <c r="F59" t="s">
         <v>55</v>
@@ -2003,7 +2015,7 @@
       </c>
       <c r="E60" t="str">
         <f t="shared" si="0"/>
-        <v>http://asiaameircalatina.org.ar/docs/9/9.6.pdf</v>
+        <v>http://www.asiaamericalatina.org/docs/9/9.6.pdf</v>
       </c>
       <c r="F60" t="s">
         <v>56</v>
@@ -2024,7 +2036,7 @@
       </c>
       <c r="E61" t="str">
         <f t="shared" si="0"/>
-        <v>http://asiaameircalatina.org.ar/docs/9/9.7.pdf</v>
+        <v>http://www.asiaamericalatina.org/docs/9/9.7.pdf</v>
       </c>
       <c r="F61" t="s">
         <v>57</v>
@@ -2045,7 +2057,7 @@
       </c>
       <c r="E62" t="str">
         <f t="shared" si="0"/>
-        <v>http://asiaameircalatina.org.ar/docs/9/9.8.pdf</v>
+        <v>http://www.asiaamericalatina.org/docs/9/9.8.pdf</v>
       </c>
       <c r="F62" t="s">
         <v>58</v>
@@ -2066,7 +2078,7 @@
       </c>
       <c r="E63" t="str">
         <f t="shared" si="0"/>
-        <v>http://asiaameircalatina.org.ar/docs/9/9.9.pdf</v>
+        <v>http://www.asiaamericalatina.org/docs/9/9.9.pdf</v>
       </c>
       <c r="F63" t="s">
         <v>59</v>
@@ -2087,7 +2099,7 @@
       </c>
       <c r="E64" t="str">
         <f t="shared" si="0"/>
-        <v>http://asiaameircalatina.org.ar/docs/9/9.10.pdf</v>
+        <v>http://www.asiaamericalatina.org/docs/9/9.10.pdf</v>
       </c>
       <c r="F64" t="s">
         <v>60</v>
@@ -2108,7 +2120,7 @@
       </c>
       <c r="E65" t="str">
         <f t="shared" si="0"/>
-        <v>http://asiaameircalatina.org.ar/docs/8/8.1.pdf</v>
+        <v>http://www.asiaamericalatina.org/docs/8/8.1.pdf</v>
       </c>
       <c r="F65" t="s">
         <v>61</v>
@@ -2129,7 +2141,7 @@
       </c>
       <c r="E66" t="str">
         <f t="shared" si="0"/>
-        <v>http://asiaameircalatina.org.ar/docs/8/8.2.pdf</v>
+        <v>http://www.asiaamericalatina.org/docs/8/8.2.pdf</v>
       </c>
       <c r="F66" t="s">
         <v>62</v>
@@ -2149,8 +2161,8 @@
         <v>3</v>
       </c>
       <c r="E67" t="str">
-        <f t="shared" ref="E67:E127" si="1">CONCATENATE("http://asiaameircalatina.org.ar/docs/",C67,"/",C67,".",D67,".pdf")</f>
-        <v>http://asiaameircalatina.org.ar/docs/8/8.3.pdf</v>
+        <f t="shared" ref="E67:E127" si="1">CONCATENATE("http://www.asiaamericalatina.org/docs/",C67,"/",C67,".",D67,".pdf")</f>
+        <v>http://www.asiaamericalatina.org/docs/8/8.3.pdf</v>
       </c>
       <c r="F67" t="s">
         <v>63</v>
@@ -2171,7 +2183,7 @@
       </c>
       <c r="E68" t="str">
         <f t="shared" si="1"/>
-        <v>http://asiaameircalatina.org.ar/docs/8/8.4.pdf</v>
+        <v>http://www.asiaamericalatina.org/docs/8/8.4.pdf</v>
       </c>
       <c r="F68" t="s">
         <v>64</v>
@@ -2192,7 +2204,7 @@
       </c>
       <c r="E69" t="str">
         <f t="shared" si="1"/>
-        <v>http://asiaameircalatina.org.ar/docs/8/8.5.pdf</v>
+        <v>http://www.asiaamericalatina.org/docs/8/8.5.pdf</v>
       </c>
       <c r="F69" t="s">
         <v>65</v>
@@ -2213,7 +2225,7 @@
       </c>
       <c r="E70" t="str">
         <f t="shared" si="1"/>
-        <v>http://asiaameircalatina.org.ar/docs/8/8.6.pdf</v>
+        <v>http://www.asiaamericalatina.org/docs/8/8.6.pdf</v>
       </c>
       <c r="F70" t="s">
         <v>66</v>
@@ -2234,7 +2246,7 @@
       </c>
       <c r="E71" t="str">
         <f t="shared" si="1"/>
-        <v>http://asiaameircalatina.org.ar/docs/7/7.1.pdf</v>
+        <v>http://www.asiaamericalatina.org/docs/7/7.1.pdf</v>
       </c>
       <c r="F71" t="s">
         <v>67</v>
@@ -2255,7 +2267,7 @@
       </c>
       <c r="E72" t="str">
         <f t="shared" si="1"/>
-        <v>http://asiaameircalatina.org.ar/docs/7/7.2.pdf</v>
+        <v>http://www.asiaamericalatina.org/docs/7/7.2.pdf</v>
       </c>
       <c r="F72" t="s">
         <v>68</v>
@@ -2276,7 +2288,7 @@
       </c>
       <c r="E73" t="str">
         <f t="shared" si="1"/>
-        <v>http://asiaameircalatina.org.ar/docs/7/7.3.pdf</v>
+        <v>http://www.asiaamericalatina.org/docs/7/7.3.pdf</v>
       </c>
       <c r="F73" t="s">
         <v>69</v>
@@ -2297,7 +2309,7 @@
       </c>
       <c r="E74" t="str">
         <f t="shared" si="1"/>
-        <v>http://asiaameircalatina.org.ar/docs/7/7.4.pdf</v>
+        <v>http://www.asiaamericalatina.org/docs/7/7.4.pdf</v>
       </c>
       <c r="F74" t="s">
         <v>70</v>
@@ -2318,7 +2330,7 @@
       </c>
       <c r="E75" t="str">
         <f t="shared" si="1"/>
-        <v>http://asiaameircalatina.org.ar/docs/7/7.5.pdf</v>
+        <v>http://www.asiaamericalatina.org/docs/7/7.5.pdf</v>
       </c>
       <c r="F75" t="s">
         <v>71</v>
@@ -2339,7 +2351,7 @@
       </c>
       <c r="E76" t="str">
         <f t="shared" si="1"/>
-        <v>http://asiaameircalatina.org.ar/docs/7/7.6.pdf</v>
+        <v>http://www.asiaamericalatina.org/docs/7/7.6.pdf</v>
       </c>
       <c r="F76" t="s">
         <v>72</v>
@@ -2360,7 +2372,7 @@
       </c>
       <c r="E77" t="str">
         <f t="shared" si="1"/>
-        <v>http://asiaameircalatina.org.ar/docs/7/7.7.pdf</v>
+        <v>http://www.asiaamericalatina.org/docs/7/7.7.pdf</v>
       </c>
       <c r="F77" t="s">
         <v>73</v>
@@ -2381,7 +2393,7 @@
       </c>
       <c r="E78" t="str">
         <f t="shared" si="1"/>
-        <v>http://asiaameircalatina.org.ar/docs/7/7.8.pdf</v>
+        <v>http://www.asiaamericalatina.org/docs/7/7.8.pdf</v>
       </c>
       <c r="F78" t="s">
         <v>74</v>
@@ -2402,7 +2414,7 @@
       </c>
       <c r="E79" t="str">
         <f t="shared" si="1"/>
-        <v>http://asiaameircalatina.org.ar/docs/7/7.9.pdf</v>
+        <v>http://www.asiaamericalatina.org/docs/7/7.9.pdf</v>
       </c>
       <c r="F79" t="s">
         <v>75</v>
@@ -2423,7 +2435,7 @@
       </c>
       <c r="E80" t="str">
         <f t="shared" si="1"/>
-        <v>http://asiaameircalatina.org.ar/docs/7/7.10.pdf</v>
+        <v>http://www.asiaamericalatina.org/docs/7/7.10.pdf</v>
       </c>
       <c r="F80" t="s">
         <v>76</v>
@@ -2444,7 +2456,7 @@
       </c>
       <c r="E81" t="str">
         <f t="shared" si="1"/>
-        <v>http://asiaameircalatina.org.ar/docs/7/7.11.pdf</v>
+        <v>http://www.asiaamericalatina.org/docs/7/7.11.pdf</v>
       </c>
       <c r="F81" t="s">
         <v>77</v>
@@ -2465,7 +2477,7 @@
       </c>
       <c r="E82" t="str">
         <f t="shared" si="1"/>
-        <v>http://asiaameircalatina.org.ar/docs/7/7.12.pdf</v>
+        <v>http://www.asiaamericalatina.org/docs/7/7.12.pdf</v>
       </c>
       <c r="F82" t="s">
         <v>78</v>
@@ -2486,7 +2498,7 @@
       </c>
       <c r="E83" t="str">
         <f t="shared" si="1"/>
-        <v>http://asiaameircalatina.org.ar/docs/6/6.1.pdf</v>
+        <v>http://www.asiaamericalatina.org/docs/6/6.1.pdf</v>
       </c>
       <c r="F83" t="s">
         <v>79</v>
@@ -2507,7 +2519,7 @@
       </c>
       <c r="E84" t="str">
         <f t="shared" si="1"/>
-        <v>http://asiaameircalatina.org.ar/docs/6/6.2.pdf</v>
+        <v>http://www.asiaamericalatina.org/docs/6/6.2.pdf</v>
       </c>
       <c r="F84" t="s">
         <v>80</v>
@@ -2528,7 +2540,7 @@
       </c>
       <c r="E85" t="str">
         <f t="shared" si="1"/>
-        <v>http://asiaameircalatina.org.ar/docs/6/6.3.pdf</v>
+        <v>http://www.asiaamericalatina.org/docs/6/6.3.pdf</v>
       </c>
       <c r="F85" t="s">
         <v>81</v>
@@ -2549,7 +2561,7 @@
       </c>
       <c r="E86" t="str">
         <f t="shared" si="1"/>
-        <v>http://asiaameircalatina.org.ar/docs/6/6.4.pdf</v>
+        <v>http://www.asiaamericalatina.org/docs/6/6.4.pdf</v>
       </c>
       <c r="F86" t="s">
         <v>82</v>
@@ -2570,7 +2582,7 @@
       </c>
       <c r="E87" t="str">
         <f t="shared" si="1"/>
-        <v>http://asiaameircalatina.org.ar/docs/6/6.5.pdf</v>
+        <v>http://www.asiaamericalatina.org/docs/6/6.5.pdf</v>
       </c>
       <c r="F87" t="s">
         <v>83</v>
@@ -2591,7 +2603,7 @@
       </c>
       <c r="E88" t="str">
         <f t="shared" si="1"/>
-        <v>http://asiaameircalatina.org.ar/docs/6/6.6.pdf</v>
+        <v>http://www.asiaamericalatina.org/docs/6/6.6.pdf</v>
       </c>
       <c r="F88" t="s">
         <v>84</v>
@@ -2612,7 +2624,7 @@
       </c>
       <c r="E89" t="str">
         <f t="shared" si="1"/>
-        <v>http://asiaameircalatina.org.ar/docs/6/6.7.pdf</v>
+        <v>http://www.asiaamericalatina.org/docs/6/6.7.pdf</v>
       </c>
       <c r="F89" t="s">
         <v>85</v>
@@ -2633,7 +2645,7 @@
       </c>
       <c r="E90" t="str">
         <f t="shared" si="1"/>
-        <v>http://asiaameircalatina.org.ar/docs/6/6.8.pdf</v>
+        <v>http://www.asiaamericalatina.org/docs/6/6.8.pdf</v>
       </c>
       <c r="F90" t="s">
         <v>86</v>
@@ -2654,7 +2666,7 @@
       </c>
       <c r="E91" t="str">
         <f t="shared" si="1"/>
-        <v>http://asiaameircalatina.org.ar/docs/5/5.1.pdf</v>
+        <v>http://www.asiaamericalatina.org/docs/5/5.1.pdf</v>
       </c>
       <c r="F91" t="s">
         <v>87</v>
@@ -2675,7 +2687,7 @@
       </c>
       <c r="E92" t="str">
         <f t="shared" si="1"/>
-        <v>http://asiaameircalatina.org.ar/docs/5/5.2.pdf</v>
+        <v>http://www.asiaamericalatina.org/docs/5/5.2.pdf</v>
       </c>
       <c r="F92" t="s">
         <v>88</v>
@@ -2696,7 +2708,7 @@
       </c>
       <c r="E93" t="str">
         <f t="shared" si="1"/>
-        <v>http://asiaameircalatina.org.ar/docs/5/5.3.pdf</v>
+        <v>http://www.asiaamericalatina.org/docs/5/5.3.pdf</v>
       </c>
       <c r="F93" t="s">
         <v>89</v>
@@ -2717,7 +2729,7 @@
       </c>
       <c r="E94" t="str">
         <f t="shared" si="1"/>
-        <v>http://asiaameircalatina.org.ar/docs/5/5.4.pdf</v>
+        <v>http://www.asiaamericalatina.org/docs/5/5.4.pdf</v>
       </c>
       <c r="F94" t="s">
         <v>90</v>
@@ -2738,7 +2750,7 @@
       </c>
       <c r="E95" t="str">
         <f t="shared" si="1"/>
-        <v>http://asiaameircalatina.org.ar/docs/5/5.5.pdf</v>
+        <v>http://www.asiaamericalatina.org/docs/5/5.5.pdf</v>
       </c>
       <c r="F95" t="s">
         <v>91</v>
@@ -2759,7 +2771,7 @@
       </c>
       <c r="E96" t="str">
         <f t="shared" si="1"/>
-        <v>http://asiaameircalatina.org.ar/docs/5/5.6.pdf</v>
+        <v>http://www.asiaamericalatina.org/docs/5/5.6.pdf</v>
       </c>
       <c r="F96" t="s">
         <v>92</v>
@@ -2780,7 +2792,7 @@
       </c>
       <c r="E97" t="str">
         <f t="shared" si="1"/>
-        <v>http://asiaameircalatina.org.ar/docs/5/5.7.pdf</v>
+        <v>http://www.asiaamericalatina.org/docs/5/5.7.pdf</v>
       </c>
       <c r="F97" t="s">
         <v>93</v>
@@ -2801,7 +2813,7 @@
       </c>
       <c r="E98" t="str">
         <f t="shared" si="1"/>
-        <v>http://asiaameircalatina.org.ar/docs/4/4.1.pdf</v>
+        <v>http://www.asiaamericalatina.org/docs/4/4.1.pdf</v>
       </c>
       <c r="F98" t="s">
         <v>67</v>
@@ -2822,7 +2834,7 @@
       </c>
       <c r="E99" t="str">
         <f t="shared" si="1"/>
-        <v>http://asiaameircalatina.org.ar/docs/4/4.2.pdf</v>
+        <v>http://www.asiaamericalatina.org/docs/4/4.2.pdf</v>
       </c>
       <c r="F99" t="s">
         <v>94</v>
@@ -2843,7 +2855,7 @@
       </c>
       <c r="E100" t="str">
         <f t="shared" si="1"/>
-        <v>http://asiaameircalatina.org.ar/docs/4/4.3.pdf</v>
+        <v>http://www.asiaamericalatina.org/docs/4/4.3.pdf</v>
       </c>
       <c r="F100" t="s">
         <v>95</v>
@@ -2864,7 +2876,7 @@
       </c>
       <c r="E101" t="str">
         <f t="shared" si="1"/>
-        <v>http://asiaameircalatina.org.ar/docs/4/4.4.pdf</v>
+        <v>http://www.asiaamericalatina.org/docs/4/4.4.pdf</v>
       </c>
       <c r="F101" t="s">
         <v>96</v>
@@ -2885,7 +2897,7 @@
       </c>
       <c r="E102" t="str">
         <f t="shared" si="1"/>
-        <v>http://asiaameircalatina.org.ar/docs/4/4.5.pdf</v>
+        <v>http://www.asiaamericalatina.org/docs/4/4.5.pdf</v>
       </c>
       <c r="F102" t="s">
         <v>97</v>
@@ -2906,7 +2918,7 @@
       </c>
       <c r="E103" t="str">
         <f t="shared" si="1"/>
-        <v>http://asiaameircalatina.org.ar/docs/4/4.6.pdf</v>
+        <v>http://www.asiaamericalatina.org/docs/4/4.6.pdf</v>
       </c>
       <c r="F103" t="s">
         <v>98</v>
@@ -2927,7 +2939,7 @@
       </c>
       <c r="E104" t="str">
         <f t="shared" si="1"/>
-        <v>http://asiaameircalatina.org.ar/docs/4/4.7.pdf</v>
+        <v>http://www.asiaamericalatina.org/docs/4/4.7.pdf</v>
       </c>
       <c r="F104" t="s">
         <v>99</v>
@@ -2948,7 +2960,7 @@
       </c>
       <c r="E105" t="str">
         <f t="shared" si="1"/>
-        <v>http://asiaameircalatina.org.ar/docs/4/4.8.pdf</v>
+        <v>http://www.asiaamericalatina.org/docs/4/4.8.pdf</v>
       </c>
       <c r="F105" t="s">
         <v>100</v>
@@ -2969,7 +2981,7 @@
       </c>
       <c r="E106" t="str">
         <f t="shared" si="1"/>
-        <v>http://asiaameircalatina.org.ar/docs/3/3.1.pdf</v>
+        <v>http://www.asiaamericalatina.org/docs/3/3.1.pdf</v>
       </c>
       <c r="F106" t="s">
         <v>101</v>
@@ -2990,7 +3002,7 @@
       </c>
       <c r="E107" t="str">
         <f t="shared" si="1"/>
-        <v>http://asiaameircalatina.org.ar/docs/3/3.2.pdf</v>
+        <v>http://www.asiaamericalatina.org/docs/3/3.2.pdf</v>
       </c>
       <c r="F107" t="s">
         <v>102</v>
@@ -3011,7 +3023,7 @@
       </c>
       <c r="E108" t="str">
         <f t="shared" si="1"/>
-        <v>http://asiaameircalatina.org.ar/docs/3/3.3.pdf</v>
+        <v>http://www.asiaamericalatina.org/docs/3/3.3.pdf</v>
       </c>
       <c r="F108" t="s">
         <v>103</v>
@@ -3032,7 +3044,7 @@
       </c>
       <c r="E109" t="str">
         <f t="shared" si="1"/>
-        <v>http://asiaameircalatina.org.ar/docs/3/3.4.pdf</v>
+        <v>http://www.asiaamericalatina.org/docs/3/3.4.pdf</v>
       </c>
       <c r="F109" t="s">
         <v>104</v>
@@ -3053,7 +3065,7 @@
       </c>
       <c r="E110" t="str">
         <f t="shared" si="1"/>
-        <v>http://asiaameircalatina.org.ar/docs/3/3.5.pdf</v>
+        <v>http://www.asiaamericalatina.org/docs/3/3.5.pdf</v>
       </c>
       <c r="F110" t="s">
         <v>105</v>
@@ -3074,7 +3086,7 @@
       </c>
       <c r="E111" t="str">
         <f t="shared" si="1"/>
-        <v>http://asiaameircalatina.org.ar/docs/3/3.6.pdf</v>
+        <v>http://www.asiaamericalatina.org/docs/3/3.6.pdf</v>
       </c>
       <c r="F111" t="s">
         <v>106</v>
@@ -3095,7 +3107,7 @@
       </c>
       <c r="E112" t="str">
         <f t="shared" si="1"/>
-        <v>http://asiaameircalatina.org.ar/docs/3/3.7.pdf</v>
+        <v>http://www.asiaamericalatina.org/docs/3/3.7.pdf</v>
       </c>
       <c r="F112" t="s">
         <v>107</v>
@@ -3116,7 +3128,7 @@
       </c>
       <c r="E113" t="str">
         <f t="shared" si="1"/>
-        <v>http://asiaameircalatina.org.ar/docs/2/2.1.pdf</v>
+        <v>http://www.asiaamericalatina.org/docs/2/2.1.pdf</v>
       </c>
       <c r="F113" t="s">
         <v>87</v>
@@ -3137,7 +3149,7 @@
       </c>
       <c r="E114" t="str">
         <f t="shared" si="1"/>
-        <v>http://asiaameircalatina.org.ar/docs/2/2.2.pdf</v>
+        <v>http://www.asiaamericalatina.org/docs/2/2.2.pdf</v>
       </c>
       <c r="F114" t="s">
         <v>108</v>
@@ -3158,7 +3170,7 @@
       </c>
       <c r="E115" t="str">
         <f t="shared" si="1"/>
-        <v>http://asiaameircalatina.org.ar/docs/2/2.3.pdf</v>
+        <v>http://www.asiaamericalatina.org/docs/2/2.3.pdf</v>
       </c>
       <c r="F115" t="s">
         <v>109</v>
@@ -3179,7 +3191,7 @@
       </c>
       <c r="E116" t="str">
         <f t="shared" si="1"/>
-        <v>http://asiaameircalatina.org.ar/docs/2/2.4.pdf</v>
+        <v>http://www.asiaamericalatina.org/docs/2/2.4.pdf</v>
       </c>
       <c r="F116" t="s">
         <v>110</v>
@@ -3200,7 +3212,7 @@
       </c>
       <c r="E117" t="str">
         <f t="shared" si="1"/>
-        <v>http://asiaameircalatina.org.ar/docs/2/2.5.pdf</v>
+        <v>http://www.asiaamericalatina.org/docs/2/2.5.pdf</v>
       </c>
       <c r="F117" t="s">
         <v>111</v>
@@ -3221,7 +3233,7 @@
       </c>
       <c r="E118" t="str">
         <f t="shared" si="1"/>
-        <v>http://asiaameircalatina.org.ar/docs/2/2.6.pdf</v>
+        <v>http://www.asiaamericalatina.org/docs/2/2.6.pdf</v>
       </c>
       <c r="F118" t="s">
         <v>112</v>
@@ -3242,7 +3254,7 @@
       </c>
       <c r="E119" t="str">
         <f t="shared" si="1"/>
-        <v>http://asiaameircalatina.org.ar/docs/2/2.7.pdf</v>
+        <v>http://www.asiaamericalatina.org/docs/2/2.7.pdf</v>
       </c>
       <c r="F119" t="s">
         <v>113</v>
@@ -3263,7 +3275,7 @@
       </c>
       <c r="E120" t="str">
         <f t="shared" si="1"/>
-        <v>http://asiaameircalatina.org.ar/docs/2/2.8.pdf</v>
+        <v>http://www.asiaamericalatina.org/docs/2/2.8.pdf</v>
       </c>
       <c r="F120" t="s">
         <v>114</v>
@@ -3284,7 +3296,7 @@
       </c>
       <c r="E121" t="str">
         <f t="shared" si="1"/>
-        <v>http://asiaameircalatina.org.ar/docs/1/1.1.pdf</v>
+        <v>http://www.asiaamericalatina.org/docs/1/1.1.pdf</v>
       </c>
       <c r="F121" t="s">
         <v>115</v>
@@ -3305,7 +3317,7 @@
       </c>
       <c r="E122" t="str">
         <f t="shared" si="1"/>
-        <v>http://asiaameircalatina.org.ar/docs/1/1.2.pdf</v>
+        <v>http://www.asiaamericalatina.org/docs/1/1.2.pdf</v>
       </c>
       <c r="F122" t="s">
         <v>116</v>
@@ -3326,7 +3338,7 @@
       </c>
       <c r="E123" t="str">
         <f t="shared" si="1"/>
-        <v>http://asiaameircalatina.org.ar/docs/1/1.3.pdf</v>
+        <v>http://www.asiaamericalatina.org/docs/1/1.3.pdf</v>
       </c>
       <c r="F123" t="s">
         <v>117</v>
@@ -3347,7 +3359,7 @@
       </c>
       <c r="E124" t="str">
         <f t="shared" si="1"/>
-        <v>http://asiaameircalatina.org.ar/docs/1/1.4.pdf</v>
+        <v>http://www.asiaamericalatina.org/docs/1/1.4.pdf</v>
       </c>
       <c r="F124" t="s">
         <v>118</v>
@@ -3368,7 +3380,7 @@
       </c>
       <c r="E125" t="str">
         <f t="shared" si="1"/>
-        <v>http://asiaameircalatina.org.ar/docs/1/1.5.pdf</v>
+        <v>http://www.asiaamericalatina.org/docs/1/1.5.pdf</v>
       </c>
       <c r="F125" t="s">
         <v>119</v>
@@ -3389,7 +3401,7 @@
       </c>
       <c r="E126" t="str">
         <f t="shared" si="1"/>
-        <v>http://asiaameircalatina.org.ar/docs/1/1.6.pdf</v>
+        <v>http://www.asiaamericalatina.org/docs/1/1.6.pdf</v>
       </c>
       <c r="F126" t="s">
         <v>120</v>
@@ -3410,7 +3422,7 @@
       </c>
       <c r="E127" t="str">
         <f t="shared" si="1"/>
-        <v>http://asiaameircalatina.org.ar/docs/1/1.7.pdf</v>
+        <v>http://www.asiaamericalatina.org/docs/1/1.7.pdf</v>
       </c>
       <c r="F127" t="s">
         <v>121</v>
